--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2174669.053363671</v>
+        <v>2172333.942161691</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>73.28643633451287</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>72.94942429078201</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>61.18421556648219</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>191.1924583607138</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>239.4954741406444</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>346.2805973438293</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.82814756577434</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>274.0203648637091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>170.8271306335625</v>
+        <v>139.175595971222</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.9503019954242</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>98.7808959733847</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>34.69211367164815</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458044</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977127</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.7414329637104</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,16 +2087,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.93037007226</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>55.5207962406033</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>91.89996056624796</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>78.68827782033961</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.5488180434315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>115.7228684476123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>55.52079624060384</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>91.89996056624804</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.246750862032</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>880.2842339216199</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148695</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2488.312625031961</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2279.566983637785</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2025.985922901965</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2025.985922901965</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2025.985922901965</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2025.985922901965</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1635.846590926153</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4416,13 @@
         <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>812.8918298888576</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1443.322424760645</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1443.322424760645</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1443.322424760645</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1443.322424760645</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>1215.332873862627</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.5402947190973</v>
+        <v>281.0354892056661</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>740.1619192519188</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C5" t="n">
-        <v>371.1994023115071</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D5" t="n">
-        <v>371.1994023115071</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E5" t="n">
-        <v>371.1994023115071</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
         <v>129.2847819674218</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316041</v>
+        <v>1277.580892319403</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>551.6025748766949</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>846.3061319081665</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.0729169938204</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W7" t="n">
-        <v>815.8550470353679</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X7" t="n">
-        <v>587.8654961373505</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.0729169938204</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.061124352532</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1032.061124352532</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>673.7954257457811</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E8" t="n">
-        <v>288.0071731475369</v>
+        <v>553.6195264050923</v>
       </c>
       <c r="F8" t="n">
-        <v>281.0616723983334</v>
+        <v>546.6740256558888</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>730.5823923378725</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C10" t="n">
-        <v>561.6462094099656</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>411.5295699976299</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>263.6164764152368</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1361.01298720966</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>1133.023436311642</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>912.2308571681123</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5258,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684978</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2367.795837888943</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>990.5373202159263</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>821.6011372880195</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D16" t="n">
-        <v>671.4844978756837</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E16" t="n">
-        <v>523.5714042932906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>376.6814567953802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191923</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756264</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468469</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962605</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143763</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6054,37 +6054,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273899</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273899</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797183</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>1031.26032167505</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>862.324138747143</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>712.2074993348073</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>564.2944057524141</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>1212.90878650529</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6929,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6953,16 +6953,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647281</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368213</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>481.4479471244855</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420924</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>186.644906044182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>265.0304328515149</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.64270034434981</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,19 +8295,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>280.1079373569279</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-4.07158460348896e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>251.492360717596</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944567</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.7255247667979</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>25.78270532855848</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.85445046951842</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5054897610403</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>66.73277020259164</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.0358353086633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>25.74504007796169</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>73.6241777260208</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.284775254</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819061</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551194</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744388</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744366</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744289</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744304</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744284</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747956.4098411424</v>
+        <v>-747956.4098411422</v>
       </c>
       <c r="C6" t="n">
-        <v>366795.3737347772</v>
+        <v>366795.3737347776</v>
       </c>
       <c r="D6" t="n">
-        <v>206779.9109867786</v>
+        <v>206779.9109867785</v>
       </c>
       <c r="E6" t="n">
-        <v>149919.0367522478</v>
+        <v>149884.2988268122</v>
       </c>
       <c r="F6" t="n">
-        <v>475331.4985596026</v>
+        <v>475296.7606341669</v>
       </c>
       <c r="G6" t="n">
-        <v>475331.4985596035</v>
+        <v>475296.7606341674</v>
       </c>
       <c r="H6" t="n">
-        <v>475331.4985596029</v>
+        <v>475296.7606341672</v>
       </c>
       <c r="I6" t="n">
-        <v>475331.4985596029</v>
+        <v>475296.7606341675</v>
       </c>
       <c r="J6" t="n">
-        <v>307726.3207496203</v>
+        <v>307691.5828241849</v>
       </c>
       <c r="K6" t="n">
-        <v>475331.4985596031</v>
+        <v>475296.760634167</v>
       </c>
       <c r="L6" t="n">
-        <v>427037.5285514121</v>
+        <v>427002.7906259767</v>
       </c>
       <c r="M6" t="n">
-        <v>390276.4706240915</v>
+        <v>390241.7326986555</v>
       </c>
       <c r="N6" t="n">
-        <v>475331.4985596029</v>
+        <v>475296.7606341675</v>
       </c>
       <c r="O6" t="n">
-        <v>475331.4985596029</v>
+        <v>475296.7606341674</v>
       </c>
       <c r="P6" t="n">
-        <v>475331.4985596029</v>
+        <v>475296.7606341674</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26969,20 +26969,20 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.16577906428151</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>313.2885143652716</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>85.24974708008698</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>29.55623763649817</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>167.380571601067</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>39.95734131222429</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>146.8343127959631</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>12.50263347288188</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>240.0945950198909</v>
+        <v>271.7461296822315</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320364</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>46.64015204954654</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>321.1112257697157</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>490.5075832355688</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565776</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.3925020622929</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,13 +33503,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778402</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0567753070492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0567753070487</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>631.9617651335553</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>265.322229467882</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -35015,19 +35015,19 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895794</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>615.5326193530509</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>187.1368183553855</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>351.9532034556946</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121332</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824187</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.978616694507</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37622,22 +37622,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>469.7150632237159</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>469.7150632237154</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
